--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value997.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value997.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.290938378681452</v>
+        <v>1.711363077163696</v>
       </c>
       <c r="B1">
-        <v>2.680673773197624</v>
+        <v>1.909371376037598</v>
       </c>
       <c r="C1">
-        <v>4.931655545357858</v>
+        <v>1.9500732421875</v>
       </c>
       <c r="D1">
-        <v>2.03491867018682</v>
+        <v>2.253790140151978</v>
       </c>
       <c r="E1">
-        <v>0.9081431880648995</v>
+        <v>3.001873016357422</v>
       </c>
     </row>
   </sheetData>
